--- a/data/resumes_scrubbed/legislative_activity/102_1.xlsx
+++ b/data/resumes_scrubbed/legislative_activity/102_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/legislative_activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{155B9D8B-5381-4D58-BDFE-DC132BAD1A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{155B9D8B-5381-4D58-BDFE-DC132BAD1A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51B68E0C-1BCA-4A61-997D-D503975A1BBB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="102_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Senate</t>
   </si>
@@ -37,9 +37,6 @@
     <t>938 hrs., 34'</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
     <t xml:space="preserve">Days in session  </t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t xml:space="preserve">Bills not signed  </t>
   </si>
   <si>
-    <t xml:space="preserve">Vetoes overriden  </t>
-  </si>
-  <si>
     <t>Congress</t>
   </si>
   <si>
@@ -161,12 +155,15 @@
   </si>
   <si>
     <t xml:space="preserve">     Measures introduced, Simple resolutions  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vetoes overridden  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -711,6 +708,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1029,7 +1030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1053,7 +1054,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>102</v>
@@ -1067,7 +1068,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1081,7 +1082,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>33241</v>
@@ -1095,7 +1096,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>33606</v>
@@ -1109,7 +1110,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>158</v>
@@ -1120,7 +1121,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -1131,7 +1132,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>18853</v>
@@ -1145,7 +1146,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
         <v>4262</v>
@@ -1153,7 +1154,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>81</v>
@@ -1167,7 +1168,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1181,7 +1182,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -1195,7 +1196,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>626</v>
@@ -1209,7 +1210,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
         <v>169</v>
@@ -1220,7 +1221,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
         <v>127</v>
@@ -1231,7 +1232,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1">
         <v>79</v>
@@ -1242,7 +1243,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1">
         <v>57</v>
@@ -1253,7 +1254,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>30</v>
@@ -1264,7 +1265,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1">
         <v>25</v>
@@ -1275,7 +1276,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1">
         <v>139</v>
@@ -1286,7 +1287,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>351</v>
@@ -1300,7 +1301,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1">
         <v>220</v>
@@ -1311,7 +1312,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1">
         <v>44</v>
@@ -1322,7 +1323,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1">
         <v>28</v>
@@ -1330,10 +1331,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B25" s="1">
+        <v>11</v>
       </c>
       <c r="C25" s="1">
         <v>7</v>
@@ -1341,7 +1342,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
         <v>12</v>
@@ -1349,7 +1350,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
@@ -1360,7 +1361,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1">
         <v>43</v>
@@ -1371,7 +1372,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1">
         <v>20</v>
@@ -1382,7 +1383,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -1393,7 +1394,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1">
         <v>92</v>
@@ -1404,7 +1405,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="2">
         <v>2701</v>
@@ -1418,7 +1419,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2">
         <v>2136</v>
@@ -1429,7 +1430,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1">
         <v>238</v>
@@ -1440,7 +1441,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1">
         <v>86</v>
@@ -1451,7 +1452,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1">
         <v>241</v>
@@ -1462,7 +1463,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
@@ -1473,7 +1474,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1">
         <v>280</v>
@@ -1484,7 +1485,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1">
         <v>190</v>
@@ -1492,7 +1493,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
@@ -1503,7 +1504,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" s="1">
         <v>11</v>
@@ -1511,7 +1512,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/resumes_scrubbed/legislative_activity/102_1.xlsx
+++ b/data/resumes_scrubbed/legislative_activity/102_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/legislative_activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{155B9D8B-5381-4D58-BDFE-DC132BAD1A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51B68E0C-1BCA-4A61-997D-D503975A1BBB}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:40009_{155B9D8B-5381-4D58-BDFE-DC132BAD1A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E5E8244-DEBC-4449-A0DE-DB764042A798}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="102_1" sheetId="1" r:id="rId1"/>
@@ -1334,7 +1334,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1">
         <v>7</v>
@@ -1494,6 +1494,9 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
